--- a/examples/single_input_transcripts.xlsx
+++ b/examples/single_input_transcripts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\!DIAB\Michail_Lazaratos\09_2021_MUSCLE_EXERCISE_MOUSE\draw_KEGG_production\code\metaKEGG\examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\!DIAB\Michail_Lazaratos\09_2021_MUSCLE_EXERCISE_MOUSE\draw_KEGG_production\PyPI\metaKEGG\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94660F4-42F2-457E-AD18-12E2916D0A32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D07109A-37EB-4BD3-8327-3DCC7922DFEF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="280">
   <si>
     <t>ID</t>
   </si>
@@ -858,6 +858,9 @@
   </si>
   <si>
     <t>Il6, Il6ra, Socs3, Tnf, Tnfrsf1a, Nfkb1, Rela, Ins2, Ins1, Insr, Irs1, Irs2, Pik3ca, Pik3cd, Pik3cb, Pik3r2, Pik3r1, Pik3r3, Akt1, Akt2, Akt3, Gsk3a, Gsk3b, Nr1h3, Rxra, Srebf1, Mlx, Mlxip, Mlxipl, Pklr, Lep, Lepr, Adipoq, Adipor1, Adipor2, Prkaa1, Prkaa2, Prkab1, Prkab2, Prkag1, Prkag3, Prkag2, Mapk14, Mapk11, Mapk12, Mapk13, Ppara, Pparg, Cdc42, Rac1, Map3k11, Mapk8, Mapk9, Mapk10, Itch, Ern1, Traf2, Map3k5, Fos, Jun, Il1a, Il1b, Ikbkb, Xbp1, Cebpa, Cyp2e1, Fasl, Tgfb1, Eif2ak3, Eif2s1, Atf4, Ddit3, Bcl2l11, Bax, Fas, Casp8, Bid, Cycs, Cyct, Casp3, Casp7, Ndufv1, Ndufv2, Ndufv3, Ndufa1, Ndufa2, Ndufa3, Ndufa4, Ndufa4l2, Ndufa5, Ndufa6, Ndufa7, Ndufa8, Ndufa9, Ndufa10, Ndufab1, Ndufa11, Ndufa12, Ndufa13, Ndufb1, Ndufb2, Ndufb3, Ndufb4, Ndufb4b, Ndufb4c, Ndufb5, Ndufb6, Ndufb7, Ndufb8, Ndufb9, Ndufb10, Ndufb11, Ndufs1, Ndufs2, Ndufs3, Ndufs4</t>
+  </si>
+  <si>
+    <t>ENSMUST0000000000207</t>
   </si>
 </sst>
 </file>
@@ -1372,10 +1375,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C145"/>
+  <dimension ref="A1:C166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="L158" sqref="L158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2978,6 +2981,237 @@
         <v>0.1994944444544591</v>
       </c>
     </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>279</v>
+      </c>
+      <c r="B146" t="s">
+        <v>277</v>
+      </c>
+      <c r="C146">
+        <v>-0.19949444445445899</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>111</v>
+      </c>
+      <c r="B147" t="s">
+        <v>112</v>
+      </c>
+      <c r="C147">
+        <v>1.57133086444625</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>252</v>
+      </c>
+      <c r="B148" t="s">
+        <v>253</v>
+      </c>
+      <c r="C148">
+        <v>-0.45769029582930398</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>217</v>
+      </c>
+      <c r="B149" t="s">
+        <v>218</v>
+      </c>
+      <c r="C149">
+        <v>0.37656175448766499</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>201</v>
+      </c>
+      <c r="B150" t="s">
+        <v>202</v>
+      </c>
+      <c r="C150">
+        <v>-1.40738460805149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>241</v>
+      </c>
+      <c r="B151" t="s">
+        <v>242</v>
+      </c>
+      <c r="C151">
+        <v>-1.72864607657393</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>139</v>
+      </c>
+      <c r="B152" t="s">
+        <v>140</v>
+      </c>
+      <c r="C152">
+        <v>-0.45263697908104999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>139</v>
+      </c>
+      <c r="B153" t="s">
+        <v>140</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>201</v>
+      </c>
+      <c r="B154" t="s">
+        <v>202</v>
+      </c>
+      <c r="C154">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>201</v>
+      </c>
+      <c r="B155" t="s">
+        <v>202</v>
+      </c>
+      <c r="C155">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>156</v>
+      </c>
+      <c r="C156">
+        <v>-1.05156848562223</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>156</v>
+      </c>
+      <c r="C157">
+        <v>0.57355999999999996</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>155</v>
+      </c>
+      <c r="B158" t="s">
+        <v>156</v>
+      </c>
+      <c r="C158">
+        <v>-0.57355999999999996</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>155</v>
+      </c>
+      <c r="B159" t="s">
+        <v>156</v>
+      </c>
+      <c r="C159">
+        <v>0.1236</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>195</v>
+      </c>
+      <c r="B160" t="s">
+        <v>196</v>
+      </c>
+      <c r="C160">
+        <v>-2.16854600625827</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>195</v>
+      </c>
+      <c r="B161" t="s">
+        <v>196</v>
+      </c>
+      <c r="C161">
+        <v>-0.57355999999999996</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>195</v>
+      </c>
+      <c r="B162" t="s">
+        <v>196</v>
+      </c>
+      <c r="C162">
+        <v>0.57355999999999996</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>197</v>
+      </c>
+      <c r="B163" t="s">
+        <v>198</v>
+      </c>
+      <c r="C163">
+        <v>0.87581072292953199</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>197</v>
+      </c>
+      <c r="B164" t="s">
+        <v>198</v>
+      </c>
+      <c r="C164">
+        <v>0.21234600000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>179</v>
+      </c>
+      <c r="B165" t="s">
+        <v>180</v>
+      </c>
+      <c r="C165">
+        <v>-2.67723061598954</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>179</v>
+      </c>
+      <c r="B166" t="s">
+        <v>180</v>
+      </c>
+      <c r="C166">
+        <v>0.96565429999999997</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
